--- a/level-3/hackerearth/phase-3-mathematics-strings-2/hackerearth-phase-3-mathematics-strings-2.xlsx
+++ b/level-3/hackerearth/phase-3-mathematics-strings-2/hackerearth-phase-3-mathematics-strings-2.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E473EF8-99D7-480C-80F9-80FAD75D3C83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7B68C9-E221-47B3-AF38-656FCF5B3F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="level 3 - math - strings 2" sheetId="14" r:id="rId1"/>
+    <sheet name="mathematics-strings-2" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -618,12 +631,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -636,22 +649,13 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1148,81 +1152,81 @@
   <cols>
     <col min="1" max="1" width="33.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
+    <col min="3" max="7" width="15.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="9" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="17"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f>AVERAGE(C4:C88)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C88)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f>AVERAGE(D4:D88)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f>AVERAGE(E4:E88)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f>AVERAGE(F4:F88)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f>AVERAGE(G4:G88)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H4:H88)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -1241,16 +1245,16 @@
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="7">
-        <f t="shared" ref="H4:H5" si="0">SUM(C4:G4)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="14" t="s">
+        <f t="shared" ref="H4:H5" si="1">SUM(C4:G4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1261,16 +1265,16 @@
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="14" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1281,17 +1285,17 @@
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11">
-        <f t="shared" ref="H6:H35" si="1">SUM(C6:G6)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7">
+        <f t="shared" ref="H6:H35" si="2">SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1302,17 +1306,17 @@
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="10" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1323,17 +1327,17 @@
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1344,17 +1348,17 @@
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="10" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1365,17 +1369,17 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="10" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1386,17 +1390,17 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="10" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1407,17 +1411,17 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="10" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1428,17 +1432,17 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="10" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1449,17 +1453,17 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="10" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1470,17 +1474,17 @@
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="10" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1491,17 +1495,17 @@
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="10" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1512,17 +1516,17 @@
       <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="10" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1533,17 +1537,17 @@
       <c r="B18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1554,17 +1558,17 @@
       <c r="B19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1575,17 +1579,17 @@
       <c r="B20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1596,17 +1600,17 @@
       <c r="B21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1617,17 +1621,17 @@
       <c r="B22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="10" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1638,17 +1642,17 @@
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1659,17 +1663,17 @@
       <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="10" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1680,17 +1684,17 @@
       <c r="B25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="13" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="10" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1701,17 +1705,17 @@
       <c r="B26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1722,17 +1726,17 @@
       <c r="B27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1743,16 +1747,16 @@
       <c r="B28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="14" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1763,16 +1767,16 @@
       <c r="B29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="14" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1783,16 +1787,16 @@
       <c r="B30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="14" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1803,16 +1807,16 @@
       <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="14" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1823,16 +1827,16 @@
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="14" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="11" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1843,16 +1847,16 @@
       <c r="B33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="14" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1863,16 +1867,16 @@
       <c r="B34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="14" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1883,16 +1887,16 @@
       <c r="B35" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="14" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1904,10 +1908,10 @@
         <v>1</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" ref="H36:H47" si="2">SUM(C36:G36)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="14" t="s">
+        <f t="shared" ref="H36:H47" si="3">SUM(C36:G36)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1919,10 +1923,10 @@
         <v>1</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1934,10 +1938,10 @@
         <v>1</v>
       </c>
       <c r="H38" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1949,10 +1953,10 @@
         <v>1</v>
       </c>
       <c r="H39" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1964,10 +1968,10 @@
         <v>1</v>
       </c>
       <c r="H40" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1979,10 +1983,10 @@
         <v>1</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1994,10 +1998,10 @@
         <v>1</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2009,10 +2013,10 @@
         <v>1</v>
       </c>
       <c r="H43" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2024,10 +2028,10 @@
         <v>2</v>
       </c>
       <c r="H44" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2039,10 +2043,10 @@
         <v>2</v>
       </c>
       <c r="H45" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2054,10 +2058,10 @@
         <v>2</v>
       </c>
       <c r="H46" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2069,10 +2073,10 @@
         <v>2</v>
       </c>
       <c r="H47" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="14" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2083,17 +2087,17 @@
       <c r="B48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
       <c r="H48" s="7">
         <f>SUM(C48:G48)</f>
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="13" t="s">
+      <c r="J48" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2104,17 +2108,17 @@
       <c r="B49" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
       <c r="H49" s="7">
         <f>SUM(C49:G49)</f>
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="13" t="s">
+      <c r="J49" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2135,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="13" t="s">
+      <c r="J50" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2146,17 +2150,17 @@
       <c r="B51" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
       <c r="H51" s="7">
         <f>SUM(C51:G51)</f>
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="13" t="s">
+      <c r="J51" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2173,11 +2177,11 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <f t="shared" ref="H52:H53" si="3">SUM(C52:G52)</f>
+        <f t="shared" ref="H52:H53" si="4">SUM(C52:G52)</f>
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="13" t="s">
+      <c r="J52" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2194,11 +2198,11 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="13" t="s">
+      <c r="J53" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2209,17 +2213,17 @@
       <c r="B54" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="11">
-        <f t="shared" ref="H54:H66" si="4">SUM(C54:G54)</f>
-        <v>0</v>
-      </c>
-      <c r="I54" s="12"/>
-      <c r="J54" s="13" t="s">
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="7">
+        <f t="shared" ref="H54:H66" si="5">SUM(C54:G54)</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2230,17 +2234,17 @@
       <c r="B55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="12"/>
-      <c r="J55" s="13" t="s">
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2251,17 +2255,17 @@
       <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="12"/>
-      <c r="J56" s="13" t="s">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2272,17 +2276,17 @@
       <c r="B57" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="12"/>
-      <c r="J57" s="13" t="s">
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2293,17 +2297,17 @@
       <c r="B58" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="12"/>
-      <c r="J58" s="13" t="s">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2314,17 +2318,17 @@
       <c r="B59" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="12"/>
-      <c r="J59" s="13" t="s">
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2335,17 +2339,17 @@
       <c r="B60" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="12"/>
-      <c r="J60" s="13" t="s">
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2356,17 +2360,17 @@
       <c r="B61" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="12"/>
-      <c r="J61" s="13" t="s">
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2377,17 +2381,17 @@
       <c r="B62" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="13" t="s">
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2398,17 +2402,17 @@
       <c r="B63" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="12"/>
-      <c r="J63" s="13" t="s">
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="2"/>
+      <c r="J63" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2419,17 +2423,17 @@
       <c r="B64" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="12"/>
-      <c r="J64" s="13" t="s">
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="J64" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2440,16 +2444,16 @@
       <c r="B65" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="14" t="s">
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2460,16 +2464,16 @@
       <c r="B66" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
       <c r="H66" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="14" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2486,10 +2490,10 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <f t="shared" ref="H67:H76" si="5">SUM(C67:G67)</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="14" t="s">
+        <f t="shared" ref="H67:H76" si="6">SUM(C67:G67)</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2506,10 +2510,10 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="14" t="s">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2526,10 +2530,10 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="14" t="s">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2546,10 +2550,10 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="14" t="s">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2560,16 +2564,16 @@
       <c r="B71" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
       <c r="H71" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="14" t="s">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2580,16 +2584,16 @@
       <c r="B72" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
       <c r="H72" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="14" t="s">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2606,10 +2610,10 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="14" t="s">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2620,16 +2624,16 @@
       <c r="B74" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
       <c r="H74" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="14" t="s">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2640,16 +2644,16 @@
       <c r="B75" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
       <c r="H75" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="14" t="s">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2660,16 +2664,16 @@
       <c r="B76" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
       <c r="H76" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="14" t="s">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2680,16 +2684,16 @@
       <c r="B77" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="11">
-        <f t="shared" ref="H77:H87" si="6">SUM(C77:G77)</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="14" t="s">
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="7">
+        <f t="shared" ref="H77:H87" si="7">SUM(C77:G77)</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="11" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2700,16 +2704,16 @@
       <c r="B78" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="14" t="s">
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2720,16 +2724,16 @@
       <c r="B79" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="14" t="s">
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2740,16 +2744,16 @@
       <c r="B80" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="14" t="s">
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2760,16 +2764,16 @@
       <c r="B81" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="14" t="s">
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2780,16 +2784,16 @@
       <c r="B82" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="14" t="s">
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2800,16 +2804,16 @@
       <c r="B83" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="14" t="s">
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2820,16 +2824,16 @@
       <c r="B84" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="14" t="s">
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2840,16 +2844,16 @@
       <c r="B85" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="14" t="s">
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2860,16 +2864,16 @@
       <c r="B86" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="14" t="s">
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2880,11 +2884,11 @@
       <c r="B87" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H87" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="14" t="s">
+      <c r="H87" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2895,16 +2899,16 @@
       <c r="B88" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="11">
-        <f t="shared" ref="H88:H118" si="7">SUM(C88:G88)</f>
-        <v>0</v>
-      </c>
-      <c r="J88" s="14" t="s">
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="7">
+        <f t="shared" ref="H88:H118" si="8">SUM(C88:G88)</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2915,16 +2919,16 @@
       <c r="B89" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="14" t="s">
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2935,16 +2939,16 @@
       <c r="B90" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="14" t="s">
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2955,16 +2959,16 @@
       <c r="B91" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="14" t="s">
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2975,16 +2979,16 @@
       <c r="B92" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="14" t="s">
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="11" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2995,16 +2999,16 @@
       <c r="B93" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="14" t="s">
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3015,16 +3019,16 @@
       <c r="B94" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="14" t="s">
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3035,16 +3039,16 @@
       <c r="B95" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="14" t="s">
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3055,16 +3059,16 @@
       <c r="B96" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="14" t="s">
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3075,16 +3079,16 @@
       <c r="B97" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="14" t="s">
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3095,16 +3099,16 @@
       <c r="B98" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
       <c r="H98" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="14" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="11" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3121,10 +3125,10 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="14" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="11" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3141,10 +3145,10 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="14" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="11" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3161,10 +3165,10 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="14" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="11" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3181,10 +3185,10 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="14" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="11" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3195,16 +3199,16 @@
       <c r="B103" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
       <c r="H103" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="14" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3215,16 +3219,16 @@
       <c r="B104" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
       <c r="H104" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="14" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="11" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3241,10 +3245,10 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="14" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="11" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3255,16 +3259,16 @@
       <c r="B106" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
       <c r="H106" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="14" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="11" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3275,16 +3279,16 @@
       <c r="B107" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
       <c r="H107" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="14" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="11" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3295,16 +3299,16 @@
       <c r="B108" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
       <c r="H108" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="14" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="11" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3315,16 +3319,16 @@
       <c r="B109" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="14" t="s">
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="11" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3335,16 +3339,16 @@
       <c r="B110" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="14" t="s">
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3355,16 +3359,16 @@
       <c r="B111" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="14" t="s">
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3375,16 +3379,16 @@
       <c r="B112" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="14" t="s">
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="11" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3395,16 +3399,16 @@
       <c r="B113" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="14" t="s">
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="11" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3415,16 +3419,16 @@
       <c r="B114" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J114" s="14" t="s">
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="11" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3435,16 +3439,16 @@
       <c r="B115" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="14" t="s">
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="11" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3455,16 +3459,16 @@
       <c r="B116" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J116" s="14" t="s">
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="11" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3475,16 +3479,16 @@
       <c r="B117" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="14" t="s">
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="11" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3495,16 +3499,16 @@
       <c r="B118" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="14" t="s">
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="11" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3521,10 +3525,10 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c r="H119" s="7">
-        <f t="shared" ref="H119:H130" si="8">SUM(C119:G119)</f>
-        <v>0</v>
-      </c>
-      <c r="J119" s="14" t="s">
+        <f t="shared" ref="H119:H130" si="9">SUM(C119:G119)</f>
+        <v>0</v>
+      </c>
+      <c r="J119" s="11" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3535,16 +3539,16 @@
       <c r="B120" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
       <c r="H120" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="14" t="s">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="11" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3555,16 +3559,16 @@
       <c r="B121" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
       <c r="H121" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="14" t="s">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3575,16 +3579,16 @@
       <c r="B122" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
       <c r="H122" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="14" t="s">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3595,16 +3599,16 @@
       <c r="B123" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="14" t="s">
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3615,16 +3619,16 @@
       <c r="B124" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="14" t="s">
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="11" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3635,16 +3639,16 @@
       <c r="B125" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="14" t="s">
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3655,16 +3659,16 @@
       <c r="B126" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="14" t="s">
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="11" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3675,16 +3679,16 @@
       <c r="B127" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J127" s="14" t="s">
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="11" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3695,16 +3699,16 @@
       <c r="B128" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J128" s="14" t="s">
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="11" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3715,16 +3719,16 @@
       <c r="B129" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J129" s="14" t="s">
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="11" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3735,36 +3739,36 @@
       <c r="B130" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J130" s="14" t="s">
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="11" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="11"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="7"/>
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="11"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="7"/>
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>

--- a/level-3/hackerearth/phase-3-mathematics-strings-2/hackerearth-phase-3-mathematics-strings-2.xlsx
+++ b/level-3/hackerearth/phase-3-mathematics-strings-2/hackerearth-phase-3-mathematics-strings-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7B68C9-E221-47B3-AF38-656FCF5B3F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E65F40-8202-4A76-BFA4-08E85342DB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1206,7 +1206,7 @@
       <c r="A3" s="18"/>
       <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C88)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C188)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
